--- a/会计/Partnership Account (1) - Financial Statement/Exercise.xlsx
+++ b/会计/Partnership Account (1) - Financial Statement/Exercise.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melvinchia/Documents/involution/会计/Partnership Account (1) - Financial Statement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7791DFF-2C36-A141-9F40-51411591174F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86ED177D-9085-5841-9339-04C7927C9D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{72D724BB-E249-8441-9C28-A417AE76225F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
   <si>
     <t>In the books of partnership</t>
   </si>
@@ -118,15 +118,9 @@
     <t>Net Profit</t>
   </si>
   <si>
-    <t>Interest on Drawings</t>
-  </si>
-  <si>
     <t>- Ling</t>
   </si>
   <si>
-    <t>Less: Appropriations</t>
-  </si>
-  <si>
     <t xml:space="preserve">         Interest on Capital</t>
   </si>
   <si>
@@ -236,6 +230,48 @@
   </si>
   <si>
     <t>As At 31 December 2015</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Add:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Interest on Drawings</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Less:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Appropriations</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -245,7 +281,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -274,6 +310,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -830,6 +873,9 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -841,9 +887,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1179,40 +1222,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
@@ -1295,7 +1338,7 @@
         <v>11658</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="23"/>
@@ -1311,7 +1354,7 @@
       <c r="D8" s="20"/>
       <c r="E8" s="15"/>
       <c r="F8" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G8" s="22">
         <v>420</v>
@@ -1345,7 +1388,7 @@
         <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="27">
         <f>SUM(G8:G12)-1000</f>
@@ -1421,7 +1464,7 @@
       <c r="C14" s="25"/>
       <c r="D14" s="26"/>
       <c r="E14" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="28"/>
@@ -1470,10 +1513,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1483,28 +1526,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
     </row>
     <row r="4" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1572,168 +1615,165 @@
     </row>
     <row r="12" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="26">
+        <v>420</v>
+      </c>
+      <c r="D12" s="26"/>
+    </row>
+    <row r="13" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C13" s="26">
         <v>2500</v>
       </c>
-      <c r="D12" s="37">
-        <f>-SUM(C8:C12)</f>
-        <v>-16310</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="36" t="s">
+      <c r="D13" s="37">
+        <f>-SUM(C8:C13)</f>
+        <v>-16730</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26">
-        <f>D6+D12</f>
-        <v>24550</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="26">
+        <f>D6+D13</f>
+        <v>24130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+    </row>
+    <row r="16" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-    </row>
-    <row r="15" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="37">
+      <c r="C16" s="26"/>
+      <c r="D16" s="37">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="26"/>
-      <c r="D16" s="26">
-        <f>D13+D15</f>
-        <v>24580</v>
-      </c>
-    </row>
     <row r="17" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="26"/>
       <c r="C17" s="26"/>
+      <c r="D17" s="26">
+        <f>D14+D16</f>
+        <v>24160</v>
+      </c>
     </row>
     <row r="18" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
     </row>
     <row r="19" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="26">
-        <v>3500</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B19" s="26"/>
       <c r="C19" s="26"/>
     </row>
     <row r="20" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="37">
+        <v>28</v>
+      </c>
+      <c r="B20" s="26">
+        <v>3500</v>
+      </c>
+      <c r="C20" s="26"/>
+    </row>
+    <row r="21" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="37">
         <v>2500</v>
       </c>
-      <c r="C20" s="26">
-        <f>B19+B20</f>
+      <c r="C21" s="26">
+        <f>B20+B21</f>
         <v>6000</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-    </row>
     <row r="22" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
     </row>
     <row r="23" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" s="26"/>
-      <c r="C23" s="26">
-        <v>420</v>
-      </c>
+      <c r="C23" s="26"/>
     </row>
     <row r="24" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-    </row>
-    <row r="25" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="C24" s="37">
+        <v>6000</v>
+      </c>
+      <c r="D24" s="37">
+        <f>-C21-C24</f>
+        <v>-12000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
-    </row>
-    <row r="26" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>30</v>
+      <c r="D25" s="47">
+        <f>D17+D24</f>
+        <v>12160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="36" t="s">
+        <v>32</v>
       </c>
       <c r="B26" s="26"/>
-      <c r="C26" s="37">
-        <v>6000</v>
-      </c>
-      <c r="D26" s="37">
-        <f>-C20-C23-C26</f>
-        <v>-12420</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="26"/>
+    </row>
+    <row r="27" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="24" t="s">
+        <v>33</v>
+      </c>
       <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="47">
-        <f>D16+D26</f>
+      <c r="C27" s="26">
+        <f>D25/2</f>
+        <v>6080</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="26"/>
+      <c r="C28" s="37">
+        <f>C27</f>
+        <v>6080</v>
+      </c>
+      <c r="D28" s="48">
+        <f>C27+C28</f>
         <v>12160</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-    </row>
-    <row r="29" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="24" t="s">
-        <v>35</v>
-      </c>
+    <row r="29" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B29" s="26"/>
-      <c r="C29" s="26">
-        <f>D27/2</f>
-        <v>6080</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
-        <v>27</v>
-      </c>
+      <c r="C29" s="26"/>
+    </row>
+    <row r="30" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="26"/>
-      <c r="C30" s="37">
-        <f>C29</f>
-        <v>6080</v>
-      </c>
-      <c r="D30" s="52">
-        <f>C29+C30</f>
-        <v>12160</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="26"/>
+    </row>
+    <row r="31" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
     </row>
@@ -1956,14 +1996,6 @@
     <row r="86" spans="2:3" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="26"/>
       <c r="C86" s="26"/>
-    </row>
-    <row r="87" spans="2:3" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="26"/>
-      <c r="C87" s="26"/>
-    </row>
-    <row r="88" spans="2:3" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="26"/>
-      <c r="C88" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1996,28 +2028,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
+      <c r="A2" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="A3" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
     </row>
     <row r="4" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2033,23 +2065,23 @@
     </row>
     <row r="6" spans="1:4" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="46" t="s">
         <v>44</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" s="26">
         <v>94000</v>
@@ -2063,7 +2095,7 @@
     </row>
     <row r="9" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" s="37">
         <v>25000</v>
@@ -2092,7 +2124,7 @@
     </row>
     <row r="11" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
@@ -2100,7 +2132,7 @@
     </row>
     <row r="12" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" s="26"/>
       <c r="C12" s="26">
@@ -2110,7 +2142,7 @@
     </row>
     <row r="13" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B13" s="26">
         <v>6000</v>
@@ -2120,7 +2152,7 @@
     </row>
     <row r="14" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B14" s="37">
         <v>-300</v>
@@ -2133,7 +2165,7 @@
     </row>
     <row r="15" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="26">
@@ -2143,7 +2175,7 @@
     </row>
     <row r="16" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B16" s="26"/>
       <c r="C16" s="37">
@@ -2156,7 +2188,7 @@
     </row>
     <row r="17" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
@@ -2167,7 +2199,7 @@
     </row>
     <row r="18" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
@@ -2175,7 +2207,7 @@
     </row>
     <row r="19" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B19" s="26">
         <v>11000</v>
@@ -2184,7 +2216,7 @@
     </row>
     <row r="20" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B20" s="37">
         <v>6000</v>
@@ -2197,7 +2229,7 @@
     </row>
     <row r="21" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
@@ -2205,7 +2237,7 @@
     </row>
     <row r="22" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B22" s="26"/>
       <c r="C22" s="37">
@@ -2215,7 +2247,7 @@
     </row>
     <row r="23" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
@@ -2226,7 +2258,7 @@
     </row>
     <row r="24" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
@@ -2237,7 +2269,7 @@
     </row>
     <row r="25" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
@@ -2245,7 +2277,7 @@
     </row>
     <row r="26" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
@@ -2253,7 +2285,7 @@
     </row>
     <row r="27" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" s="26"/>
       <c r="C27" s="26">
@@ -2263,7 +2295,7 @@
     </row>
     <row r="28" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="26"/>
       <c r="C28" s="37">
@@ -2276,7 +2308,7 @@
     </row>
     <row r="29" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
@@ -2284,7 +2316,7 @@
     </row>
     <row r="30" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B30" s="26"/>
       <c r="C30" s="26">
@@ -2294,7 +2326,7 @@
     </row>
     <row r="31" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="26"/>
       <c r="C31" s="37">
@@ -2307,7 +2339,7 @@
     </row>
     <row r="32" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B32" s="26"/>
       <c r="C32" s="26"/>
